--- a/Blackjack/EenVariabele.xlsx
+++ b/Blackjack/EenVariabele.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@data\schoolhogent\2tin\semmester2\Onderzoek\Onderzoekstechnieken\Blackjack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavoos\Documents\HoGent\Chamilo\Onderzoekstechnieken\project\Blackjack\Onderzoekstechnieken\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12204" windowHeight="5952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Waarnemingen</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>standaardafwijking</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Perfect</t>
   </si>
 </sst>
 </file>
@@ -89,11 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -109,9 +118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -221,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,138 +380,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1039.5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <f>MEDIAN(A2:A11)</f>
+      <c r="C3">
+        <f>MEDIAN(A3:A12)</f>
         <v>1039.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="E3">
+        <v>1021.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>MEDIAN(E3:E12)</f>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1045</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <f>MODE(A2:A11)</f>
+      <c r="C4">
+        <f>MODE(A3:A12)</f>
         <v>1042</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E4">
+        <v>1016</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>MODE(E3:E12)</f>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1032.5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <f>ABS(MAX(A2:A11)-MIN(A2:A11))</f>
+      <c r="C5">
+        <f>ABS(MAX(A3:A12)-MIN(A3:A12))</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E5">
+        <v>1014</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>ABS(MAX(E3:E12)-MIN(E3:E12))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1040</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <f>QUARTILE(A2:A11,1)</f>
+      <c r="C6">
+        <f>QUARTILE(A3:A12,1)</f>
         <v>1035.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E6">
+        <v>1027.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>QUARTILE(E3:E12,1)</f>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1042</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <f>QUARTILE(A2:A11,2)</f>
+      <c r="C7">
+        <f>QUARTILE(A3:A12,2)</f>
         <v>1039.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="E7">
+        <v>1022.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>QUARTILE(E3:E12,2)</f>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1034.5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <f>QUARTILE(A2:A11,3)</f>
+      <c r="C8">
+        <f>QUARTILE(A3:A12,3)</f>
         <v>1042</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E8">
+        <v>1017</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f>QUARTILE(E3:E12,3)</f>
+        <v>1022.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1035</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <f>VARP(A2:A11)</f>
+      <c r="C9">
+        <f>VARP(A3:A12)</f>
         <v>23.352499999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="E9">
+        <v>1023</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>VARP(E3:E12)</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1042</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <f>SQRT(C8)</f>
+      <c r="C10">
+        <f>SQRT(C9)</f>
         <v>4.8324424466308962</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E10">
+        <v>1016</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f>SQRT(G9)</f>
+        <v>4.2895221179054435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1037</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="E11">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1049</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="E12">
+        <v>1013.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
-        <f>AVERAGE(A2:A11)</f>
+      <c r="C13">
+        <f>AVERAGE(A3:A12)</f>
         <v>1039.6500000000001</v>
       </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1019</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Blackjack/EenVariabele.xlsx
+++ b/Blackjack/EenVariabele.xlsx
@@ -26,47 +26,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
-    <t>Waarnemingen</t>
-  </si>
-  <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Mediaan</t>
-  </si>
-  <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>Bereik</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Variantie</t>
-  </si>
-  <si>
-    <t>standaardafwijking</t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
     <t>Perfect</t>
+  </si>
+  <si>
+    <t>Mediaan:</t>
+  </si>
+  <si>
+    <t>Modus:</t>
+  </si>
+  <si>
+    <t>Bereik:</t>
+  </si>
+  <si>
+    <t>Q1:</t>
+  </si>
+  <si>
+    <t>Q2:</t>
+  </si>
+  <si>
+    <t>Q3:</t>
+  </si>
+  <si>
+    <t>Variantie:</t>
+  </si>
+  <si>
+    <t>Standaardafwijking:</t>
+  </si>
+  <si>
+    <t>Gemiddelde:</t>
+  </si>
+  <si>
+    <t>Waarnemingen:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +74,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,10 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,255 +399,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
         <v>1039.5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <f>MEDIAN(A3:A12)</f>
+      <c r="D4">
+        <f>MEDIAN(B4:B13)</f>
         <v>1039.75</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4">
+        <v>1031.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>MEDIAN(F4:F13)</f>
+        <v>1024.5</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>MODE(B4:B13)</f>
+        <v>1042</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4">
+        <v>1037</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>MODE(F4:F13)</f>
+        <v>1016</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4">
+        <v>1032.5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>ABS(MAX(B4:B13)-MIN(B4:B13))</f>
+        <v>16.5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>1018</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>ABS(MAX(F4:F13)-MIN(F4:F13))</f>
+        <v>39</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>QUARTILE(B4:B13,1)</f>
+        <v>1035.5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4">
+        <v>1048.5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>QUARTILE(F4:F13,1)</f>
+        <v>1016.5</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>QUARTILE(B4:B13,2)</f>
+        <v>1039.75</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4">
+        <v>1042</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>QUARTILE(F4:F13,2)</f>
+        <v>1024.5</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4">
+        <v>1034.5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>QUARTILE(B4:B13,3)</f>
+        <v>1042</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4">
         <v>1021.5</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <f>MEDIAN(E3:E12)</f>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1045</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f>MODE(A3:A12)</f>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f>QUARTILE(F4:F13,3)</f>
+        <v>1035.625</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4">
+        <v>1035</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>VARP(B4:B13)</f>
+        <v>23.352499999999999</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4">
+        <v>1016</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f>VARP(F4:F13)</f>
+        <v>146.66249999999999</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4">
         <v>1042</v>
       </c>
-      <c r="E4">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>SQRT(D10)</f>
+        <v>4.8324424466308962</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4">
+        <v>1009.5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f>SQRT(H10)</f>
+        <v>12.110429389579876</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4">
+        <v>1037</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4">
+        <v>1027.5</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4">
+        <v>1049</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4">
         <v>1016</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f>MODE(E3:E12)</f>
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1032.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f>ABS(MAX(A3:A12)-MIN(A3:A12))</f>
-        <v>16.5</v>
-      </c>
-      <c r="E5">
-        <v>1014</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <f>ABS(MAX(E3:E12)-MIN(E3:E12))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1040</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f>QUARTILE(A3:A12,1)</f>
-        <v>1035.5</v>
-      </c>
-      <c r="E6">
-        <v>1027.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f>QUARTILE(E3:E12,1)</f>
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1042</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f>QUARTILE(A3:A12,2)</f>
-        <v>1039.75</v>
-      </c>
-      <c r="E7">
-        <v>1022.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <f>QUARTILE(E3:E12,2)</f>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1034.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f>QUARTILE(A3:A12,3)</f>
-        <v>1042</v>
-      </c>
-      <c r="E8">
-        <v>1017</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f>QUARTILE(E3:E12,3)</f>
-        <v>1022.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1035</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <f>VARP(A3:A12)</f>
-        <v>23.352499999999999</v>
-      </c>
-      <c r="E9">
-        <v>1023</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f>VARP(E3:E12)</f>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1042</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <f>SQRT(C9)</f>
-        <v>4.8324424466308962</v>
-      </c>
-      <c r="E10">
-        <v>1016</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f>SQRT(G9)</f>
-        <v>4.2895221179054435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1037</v>
-      </c>
-      <c r="E11">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1049</v>
-      </c>
-      <c r="E12">
-        <v>1013.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(A3:A12)</f>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B4:B13)</f>
         <v>1039.6500000000001</v>
       </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f>AVERAGE(E3:E12)</f>
-        <v>1019</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(F4:F13)</f>
+        <v>1026.75</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Blackjack/EenVariabele.xlsx
+++ b/Blackjack/EenVariabele.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavoos\Documents\HoGent\Chamilo\Onderzoekstechnieken\project\Blackjack\Onderzoekstechnieken\Blackjack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@data\schoolhogent\2tin\semmester2\Onderzoek\Onderzoekstechnieken\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="5952"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Waarnemingen</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Perfect</t>
+  </si>
+  <si>
+    <t>Basic aangepast</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -118,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -230,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,23 +383,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -408,7 +411,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -416,7 +419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1039.5</v>
       </c>
@@ -438,7 +441,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1045</v>
       </c>
@@ -460,7 +463,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1032.5</v>
       </c>
@@ -482,7 +485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1040</v>
       </c>
@@ -504,7 +507,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1042</v>
       </c>
@@ -526,7 +529,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1034.5</v>
       </c>
@@ -548,7 +551,7 @@
         <v>1022.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1035</v>
       </c>
@@ -570,7 +573,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1042</v>
       </c>
@@ -592,7 +595,7 @@
         <v>4.2895221179054435</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1037</v>
       </c>
@@ -600,7 +603,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1049</v>
       </c>
@@ -608,7 +611,7 @@
         <v>1013.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -622,6 +625,131 @@
       <c r="G13">
         <f>AVERAGE(E3:E12)</f>
         <v>1019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1046.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>MEDIAN(A18:A27)</f>
+        <v>1029.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>MODE(A18:A27)</f>
+        <v>1020.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1020.5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f>ABS(MAX(A18:A27)-MIN(A18:A27))</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1030.5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f>QUARTILE(A18:A27,1)</f>
+        <v>1020.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1042</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>QUARTILE(A18:A27,2)</f>
+        <v>1029.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1038.5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>QUARTILE(A18:A27,3)</f>
+        <v>1041.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1028</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f>VARP(A18:A27)</f>
+        <v>125.12249999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1045</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f>SQRT(C24)</f>
+        <v>11.185816912501295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1020.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(A18:A27)</f>
+        <v>1030.55</v>
       </c>
     </row>
   </sheetData>

--- a/Blackjack/EenVariabele.xlsx
+++ b/Blackjack/EenVariabele.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@data\schoolhogent\2tin\semmester2\Onderzoek\Onderzoekstechnieken\Blackjack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavoos\Documents\HoGent\Chamilo\Onderzoekstechnieken\project\Blackjack\Onderzoekstechnieken\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="5952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Waarnemingen</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Perfect</t>
-  </si>
-  <si>
-    <t>Basic aangepast</t>
   </si>
 </sst>
 </file>
@@ -105,7 +102,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,9 +118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -233,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,23 +380,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -411,7 +408,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -419,7 +416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1039.5</v>
       </c>
@@ -441,7 +438,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1045</v>
       </c>
@@ -463,7 +460,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1032.5</v>
       </c>
@@ -485,7 +482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1040</v>
       </c>
@@ -507,7 +504,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1042</v>
       </c>
@@ -529,7 +526,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1034.5</v>
       </c>
@@ -551,7 +548,7 @@
         <v>1022.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1035</v>
       </c>
@@ -573,7 +570,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1042</v>
       </c>
@@ -595,7 +592,7 @@
         <v>4.2895221179054435</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1037</v>
       </c>
@@ -603,7 +600,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1049</v>
       </c>
@@ -611,7 +608,7 @@
         <v>1013.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -625,131 +622,6 @@
       <c r="G13">
         <f>AVERAGE(E3:E12)</f>
         <v>1019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1046.5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <f>MEDIAN(A18:A27)</f>
-        <v>1029.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1014</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f>MODE(A18:A27)</f>
-        <v>1020.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1020.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <f>ABS(MAX(A18:A27)-MIN(A18:A27))</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1030.5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <f>QUARTILE(A18:A27,1)</f>
-        <v>1020.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1042</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <f>QUARTILE(A18:A27,2)</f>
-        <v>1029.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1038.5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <f>QUARTILE(A18:A27,3)</f>
-        <v>1041.125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1028</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <f>VARP(A18:A27)</f>
-        <v>125.12249999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1045</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <f>SQRT(C24)</f>
-        <v>11.185816912501295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1020.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f>AVERAGE(A18:A27)</f>
-        <v>1030.55</v>
       </c>
     </row>
   </sheetData>

--- a/Blackjack/EenVariabele.xlsx
+++ b/Blackjack/EenVariabele.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavoos\Documents\HoGent\Chamilo\Onderzoekstechnieken\project\Blackjack\Onderzoekstechnieken\Blackjack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@data\schoolhogent\2tin\semmester2\Onderzoek\Onderzoekstechnieken\Blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="5952"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,49 +24,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>Waarnemingen</t>
-  </si>
-  <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Mediaan</t>
-  </si>
-  <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>Bereik</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Variantie</t>
-  </si>
-  <si>
-    <t>standaardafwijking</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Basic</t>
   </si>
   <si>
     <t>Perfect</t>
+  </si>
+  <si>
+    <t>Mediaan:</t>
+  </si>
+  <si>
+    <t>Modus:</t>
+  </si>
+  <si>
+    <t>Bereik:</t>
+  </si>
+  <si>
+    <t>Q1:</t>
+  </si>
+  <si>
+    <t>Q2:</t>
+  </si>
+  <si>
+    <t>Q3:</t>
+  </si>
+  <si>
+    <t>Variantie:</t>
+  </si>
+  <si>
+    <t>Standaardafwijking:</t>
+  </si>
+  <si>
+    <t>Gemiddelde:</t>
+  </si>
+  <si>
+    <t>Waarnemingen:</t>
+  </si>
+  <si>
+    <t>Perfect Aangepast</t>
+  </si>
+  <si>
+    <t>Basic Aangepast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +80,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,14 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -118,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -230,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,255 +405,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3">
         <v>1039.5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <f>MEDIAN(A3:A12)</f>
+      <c r="D4">
+        <f>MEDIAN(B4:B13)</f>
         <v>1039.75</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
+        <v>1031.5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>MEDIAN(F4:F13)</f>
+        <v>1024.5</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3">
+        <v>1045</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>MODE(B4:B13)</f>
+        <v>1042</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
+        <v>1037</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>MODE(F4:F13)</f>
+        <v>1016</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3">
+        <v>1032.5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>ABS(MAX(B4:B13)-MIN(B4:B13))</f>
+        <v>16.5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
+        <v>1018</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>ABS(MAX(F4:F13)-MIN(F4:F13))</f>
+        <v>39</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>QUARTILE(B4:B13,1)</f>
+        <v>1035.5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3">
+        <v>1048.5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>QUARTILE(F4:F13,1)</f>
+        <v>1016.5</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>QUARTILE(B4:B13,2)</f>
+        <v>1039.75</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <v>1042</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>QUARTILE(F4:F13,2)</f>
+        <v>1024.5</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3">
+        <v>1034.5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>QUARTILE(B4:B13,3)</f>
+        <v>1042</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3">
         <v>1021.5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f>QUARTILE(F4:F13,3)</f>
+        <v>1035.625</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>VARP(B4:B13)</f>
+        <v>23.352499999999999</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <v>1016</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f>VARP(F4:F13)</f>
+        <v>146.66249999999999</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>SQRT(D10)</f>
+        <v>4.8324424466308962</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3">
+        <v>1009.5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f>SQRT(H10)</f>
+        <v>12.110429389579876</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3">
+        <v>1037</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <v>1027.5</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3">
+        <v>1049</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3">
+        <v>1016</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B4:B13)</f>
+        <v>1039.6500000000001</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(F4:F13)</f>
+        <v>1026.75</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3">
+        <v>1046.5</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3">
-        <f>MEDIAN(E3:E12)</f>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D19">
+        <f>MEDIAN(B19:B28)</f>
+        <v>1029.25</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3">
+        <v>1023.5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f>MEDIAN(F19:F28)</f>
+        <v>1029.5</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f>MODE(B19:B28)</f>
+        <v>1020.5</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3">
+        <v>1035.5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="e">
+        <f>MODE(F19:F28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3">
+        <v>1020.5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f>ABS(MAX(B19:B28)-MIN(B19:B28))</f>
+        <v>32.5</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f>ABS(MAX(F19:F28)-MIN(F19:F28))</f>
+        <v>12</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3">
+        <v>1030.5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f>QUARTILE(B19:B28,1)</f>
+        <v>1020.5</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <f>QUARTILE(F19:F28,1)</f>
+        <v>1026.5</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f>QUARTILE(B19:B28,2)</f>
+        <v>1029.25</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <f>QUARTILE(F19:F28,2)</f>
+        <v>1029.5</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3">
+        <v>1038.5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <f>QUARTILE(B19:B28,3)</f>
+        <v>1041.125</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <f>QUARTILE(F19:F28,3)</f>
+        <v>1032.5</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3">
+        <v>1028</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f>VARP(B19:B28)</f>
+        <v>125.12249999999999</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <f>VARP(F19:F28)</f>
+        <v>36</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3">
         <v>1045</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f>MODE(A3:A12)</f>
-        <v>1042</v>
-      </c>
-      <c r="E4">
-        <v>1016</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f>MODE(E3:E12)</f>
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1032.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f>ABS(MAX(A3:A12)-MIN(A3:A12))</f>
-        <v>16.5</v>
-      </c>
-      <c r="E5">
-        <v>1014</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <f>ABS(MAX(E3:E12)-MIN(E3:E12))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1040</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f>QUARTILE(A3:A12,1)</f>
-        <v>1035.5</v>
-      </c>
-      <c r="E6">
-        <v>1027.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f>QUARTILE(E3:E12,1)</f>
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1042</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f>SQRT(D25)</f>
+        <v>11.185816912501295</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <f>SQRT(H25)</f>
         <v>6</v>
       </c>
-      <c r="C7">
-        <f>QUARTILE(A3:A12,2)</f>
-        <v>1039.75</v>
-      </c>
-      <c r="E7">
-        <v>1022.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <f>QUARTILE(E3:E12,2)</f>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1034.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f>QUARTILE(A3:A12,3)</f>
-        <v>1042</v>
-      </c>
-      <c r="E8">
-        <v>1017</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f>QUARTILE(E3:E12,3)</f>
-        <v>1022.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1035</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <f>VARP(A3:A12)</f>
-        <v>23.352499999999999</v>
-      </c>
-      <c r="E9">
-        <v>1023</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f>VARP(E3:E12)</f>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1042</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <f>SQRT(C9)</f>
-        <v>4.8324424466308962</v>
-      </c>
-      <c r="E10">
-        <v>1016</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f>SQRT(G9)</f>
-        <v>4.2895221179054435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1037</v>
-      </c>
-      <c r="E11">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1049</v>
-      </c>
-      <c r="E12">
-        <v>1013.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(A3:A12)</f>
-        <v>1039.6500000000001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f>AVERAGE(E3:E12)</f>
-        <v>1019</v>
-      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3">
+        <v>1020.5</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3">
+        <v>1020</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(B19:B28)</f>
+        <v>1030.55</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(F19:F28)</f>
+        <v>1029.5</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>